--- a/element_info_datas/element_info_datas.xlsx
+++ b/element_info_datas/element_info_datas.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UI-automation-framework\element_info_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB756F35-E285-4B7D-8A48-C63A61B08067}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFBEB1F-D937-403F-BEE9-64800F865DD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="login_page" sheetId="1" r:id="rId1"/>
-    <sheet name="main_page" sheetId="2" r:id="rId2"/>
-    <sheet name="myzone_page" sheetId="3" r:id="rId3"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="2" r:id="rId2"/>
+    <sheet name="myzone" sheetId="3" r:id="rId3"/>
     <sheet name="bug" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="96">
   <si>
     <t>元素变量名</t>
   </si>
@@ -511,6 +511,14 @@
   </si>
   <si>
     <t>.btn.btn-wide.btn-primary</t>
+  </si>
+  <si>
+    <t>所属页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -887,22 +895,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.625" customWidth="1"/>
-    <col min="2" max="2" width="26.875" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="2" max="3" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -910,16 +918,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,16 +938,19 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,16 +958,19 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -961,19 +978,22 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4 IY2:IY4 SU2:SU4 ACQ2:ACQ4 AMM2:AMM4 AWI2:AWI4 BGE2:BGE4 BQA2:BQA4 BZW2:BZW4 CJS2:CJS4 CTO2:CTO4 DDK2:DDK4 DNG2:DNG4 DXC2:DXC4 EGY2:EGY4 EQU2:EQU4 FAQ2:FAQ4 FKM2:FKM4 FUI2:FUI4 GEE2:GEE4 GOA2:GOA4 GXW2:GXW4 HHS2:HHS4 HRO2:HRO4 IBK2:IBK4 ILG2:ILG4 IVC2:IVC4 JEY2:JEY4 JOU2:JOU4 JYQ2:JYQ4 KIM2:KIM4 KSI2:KSI4 LCE2:LCE4 LMA2:LMA4 LVW2:LVW4 MFS2:MFS4 MPO2:MPO4 MZK2:MZK4 NJG2:NJG4 NTC2:NTC4 OCY2:OCY4 OMU2:OMU4 OWQ2:OWQ4 PGM2:PGM4 PQI2:PQI4 QAE2:QAE4 QKA2:QKA4 QTW2:QTW4 RDS2:RDS4 RNO2:RNO4 RXK2:RXK4 SHG2:SHG4 SRC2:SRC4 TAY2:TAY4 TKU2:TKU4 TUQ2:TUQ4 UEM2:UEM4 UOI2:UOI4 UYE2:UYE4 VIA2:VIA4 VRW2:VRW4 WBS2:WBS4 WLO2:WLO4 WVK2:WVK4" xr:uid="{BB817908-A084-4875-B23F-399958729E05}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4 IZ2:IZ4 SV2:SV4 ACR2:ACR4 AMN2:AMN4 AWJ2:AWJ4 BGF2:BGF4 BQB2:BQB4 BZX2:BZX4 CJT2:CJT4 CTP2:CTP4 DDL2:DDL4 DNH2:DNH4 DXD2:DXD4 EGZ2:EGZ4 EQV2:EQV4 FAR2:FAR4 FKN2:FKN4 FUJ2:FUJ4 GEF2:GEF4 GOB2:GOB4 GXX2:GXX4 HHT2:HHT4 HRP2:HRP4 IBL2:IBL4 ILH2:ILH4 IVD2:IVD4 JEZ2:JEZ4 JOV2:JOV4 JYR2:JYR4 KIN2:KIN4 KSJ2:KSJ4 LCF2:LCF4 LMB2:LMB4 LVX2:LVX4 MFT2:MFT4 MPP2:MPP4 MZL2:MZL4 NJH2:NJH4 NTD2:NTD4 OCZ2:OCZ4 OMV2:OMV4 OWR2:OWR4 PGN2:PGN4 PQJ2:PQJ4 QAF2:QAF4 QKB2:QKB4 QTX2:QTX4 RDT2:RDT4 RNP2:RNP4 RXL2:RXL4 SHH2:SHH4 SRD2:SRD4 TAZ2:TAZ4 TKV2:TKV4 TUR2:TUR4 UEN2:UEN4 UOJ2:UOJ4 UYF2:UYF4 VIB2:VIB4 VRX2:VRX4 WBT2:WBT4 WLP2:WLP4 WVL2:WVL4" xr:uid="{BB817908-A084-4875-B23F-399958729E05}">
       <formula1>"id,name,class,tag,linktext,plinktext,xpath,css"</formula1>
     </dataValidation>
   </dataValidations>
@@ -987,7 +1007,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1091,7 +1111,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1099,7 +1119,9 @@
     <col min="1" max="1" width="22.75" customWidth="1"/>
     <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1173,7 +1195,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/element_info_datas/element_info_datas.xlsx
+++ b/element_info_datas/element_info_datas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UI-automation-framework\element_info_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFBEB1F-D937-403F-BEE9-64800F865DD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D609154D-4D6D-4E49-A633-FDEFBD1F6C9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -898,7 +898,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -966,9 +966,7 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2">
-        <v>4</v>
-      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">

--- a/element_info_datas/element_info_datas.xlsx
+++ b/element_info_datas/element_info_datas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UI-automation-framework\element_info_datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bytedance/PycharmProjects/UI-automation-framework/element_info_datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D609154D-4D6D-4E49-A633-FDEFBD1F6C9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E484B091-DB7C-6C45-8B2C-84E42E9BDF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35840" yWindow="1300" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -169,6 +169,42 @@
     <t>创建bug按钮</t>
   </si>
   <si>
+    <t>bug_module_select</t>
+  </si>
+  <si>
+    <t>所属模块下拉框</t>
+  </si>
+  <si>
+    <t>#module_chosen &gt; a</t>
+  </si>
+  <si>
+    <t>bug_module_choose</t>
+  </si>
+  <si>
+    <t>选择所属模块</t>
+  </si>
+  <si>
+    <t>#module_chosen &gt; div &gt; ul &gt; li:nth-child(1)</t>
+  </si>
+  <si>
+    <t>bug_project_select</t>
+  </si>
+  <si>
+    <t>所属项目下拉框</t>
+  </si>
+  <si>
+    <t>#project_chosen &gt; a</t>
+  </si>
+  <si>
+    <t>bug_project_choose</t>
+  </si>
+  <si>
+    <t>选择所属项目</t>
+  </si>
+  <si>
+    <t>#project_chosen &gt; div &gt; ul &gt; li:nth-child(1)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -177,7 +213,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>x</t>
+      <t>bug_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
     </r>
     <r>
       <rPr>
@@ -187,47 +233,14 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>path</t>
-    </r>
-  </si>
-  <si>
-    <t>//*[@id="mainMenu"]/div[3]/a[3]</t>
-  </si>
-  <si>
-    <t>bug_module_select</t>
-  </si>
-  <si>
-    <t>所属模块下拉框</t>
-  </si>
-  <si>
-    <t>#module_chosen &gt; a</t>
-  </si>
-  <si>
-    <t>bug_module_choose</t>
-  </si>
-  <si>
-    <t>选择所属模块</t>
-  </si>
-  <si>
-    <t>#module_chosen &gt; div &gt; ul &gt; li:nth-child(1)</t>
-  </si>
-  <si>
-    <t>bug_project_select</t>
-  </si>
-  <si>
-    <t>所属项目下拉框</t>
-  </si>
-  <si>
-    <t>#project_chosen &gt; a</t>
-  </si>
-  <si>
-    <t>bug_project_choose</t>
-  </si>
-  <si>
-    <t>选择所属项目</t>
-  </si>
-  <si>
-    <t>#project_chosen &gt; div &gt; ul &gt; li:nth-child(1)</t>
+      <t>ersion_select</t>
+    </r>
+  </si>
+  <si>
+    <t>影响版本下拉框</t>
+  </si>
+  <si>
+    <t>#openedBuild_chosen</t>
   </si>
   <si>
     <r>
@@ -258,14 +271,14 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ersion_select</t>
-    </r>
-  </si>
-  <si>
-    <t>影响版本下拉框</t>
-  </si>
-  <si>
-    <t>#openedBuild_chosen</t>
+      <t>ersion_choose</t>
+    </r>
+  </si>
+  <si>
+    <t>选择影响版本</t>
+  </si>
+  <si>
+    <t>//*[@id="openedBuild_chosen"]/div/ul/li[2]</t>
   </si>
   <si>
     <r>
@@ -286,7 +299,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>v</t>
+      <t>d</t>
     </r>
     <r>
       <rPr>
@@ -296,14 +309,14 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ersion_choose</t>
-    </r>
-  </si>
-  <si>
-    <t>选择影响版本</t>
-  </si>
-  <si>
-    <t>//*[@id="openedBuild_chosen"]/div/ul/li[2]</t>
+      <t>atetime_select</t>
+    </r>
+  </si>
+  <si>
+    <t>截止日期下拉框</t>
+  </si>
+  <si>
+    <t>#deadline</t>
   </si>
   <si>
     <r>
@@ -334,14 +347,32 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>atetime_select</t>
-    </r>
-  </si>
-  <si>
-    <t>截止日期下拉框</t>
-  </si>
-  <si>
-    <t>#deadline</t>
+      <t>atetime_choose</t>
+    </r>
+  </si>
+  <si>
+    <t>选择截止日期</t>
+  </si>
+  <si>
+    <t>body &gt; div.datetimepicker.dropdown-menu.datetimepicker-dropdown-bottom-right &gt; div.datetimepicker-days &gt; table &gt; tfoot &gt; tr &gt; th</t>
+  </si>
+  <si>
+    <t>bug_system_select</t>
+  </si>
+  <si>
+    <t>操作系统下拉框</t>
+  </si>
+  <si>
+    <t>#os_chosen &gt; a</t>
+  </si>
+  <si>
+    <t>bug_system_choose</t>
+  </si>
+  <si>
+    <t>选择操作系统</t>
+  </si>
+  <si>
+    <t>#os_chosen &gt; div &gt; ul &gt; li:nth-child(2)</t>
   </si>
   <si>
     <r>
@@ -362,7 +393,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>d</t>
+      <t>b</t>
     </r>
     <r>
       <rPr>
@@ -372,32 +403,14 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>atetime_choose</t>
-    </r>
-  </si>
-  <si>
-    <t>选择截止日期</t>
-  </si>
-  <si>
-    <t>body &gt; div.datetimepicker.dropdown-menu.datetimepicker-dropdown-bottom-right &gt; div.datetimepicker-days &gt; table &gt; tfoot &gt; tr &gt; th</t>
-  </si>
-  <si>
-    <t>bug_system_select</t>
-  </si>
-  <si>
-    <t>操作系统下拉框</t>
-  </si>
-  <si>
-    <t>#os_chosen &gt; a</t>
-  </si>
-  <si>
-    <t>bug_system_choose</t>
-  </si>
-  <si>
-    <t>选择操作系统</t>
-  </si>
-  <si>
-    <t>#os_chosen &gt; div &gt; ul &gt; li:nth-child(2)</t>
+      <t>rowser_select</t>
+    </r>
+  </si>
+  <si>
+    <t>浏览器下拉框</t>
+  </si>
+  <si>
+    <t>#browser_chosen &gt; a</t>
   </si>
   <si>
     <r>
@@ -428,44 +441,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>rowser_select</t>
-    </r>
-  </si>
-  <si>
-    <t>浏览器下拉框</t>
-  </si>
-  <si>
-    <t>#browser_chosen &gt; a</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bug_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>rowser_choose</t>
     </r>
   </si>
@@ -501,9 +476,6 @@
     <t>输入重现步骤</t>
   </si>
   <si>
-    <t>.article-content</t>
-  </si>
-  <si>
     <t>bug_save_button</t>
   </si>
   <si>
@@ -518,6 +490,18 @@
   </si>
   <si>
     <t>login_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="mainMenu"]/div[3]/a[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.article-content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +512,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -897,20 +881,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1"/>
-    <col min="2" max="3" width="26.875" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -918,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -930,7 +914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="3" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -950,7 +934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="3" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -958,7 +942,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -968,7 +952,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="3" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -976,7 +960,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -1008,17 +992,17 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="51.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="4" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1058,7 +1042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="4" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1078,7 +1062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="4" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1112,17 +1096,17 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="4" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1162,7 +1146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="4" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1192,21 +1176,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFEBF2C-E1FB-4D2A-A5B5-E2F98D57D44A}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.5" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="16">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="16">
       <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
@@ -1246,7 +1230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="4" customFormat="1" ht="16">
       <c r="A3" s="7" t="s">
         <v>39</v>
       </c>
@@ -1266,7 +1250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="4" customFormat="1" ht="16">
       <c r="A4" s="7" t="s">
         <v>42</v>
       </c>
@@ -1277,121 +1261,121 @@
         <v>36</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" ht="16">
+      <c r="A5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="C5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="F5" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" ht="16">
+      <c r="A6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="C6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="F6" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="16">
+      <c r="A7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="C7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="F7" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="16">
+      <c r="A8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="C8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="F8" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="17">
+      <c r="A9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="C9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="F9" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" ht="17">
+      <c r="A10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F9" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>36</v>
@@ -1400,207 +1384,207 @@
         <v>20</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="17">
+      <c r="A11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="C11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="F11" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="4" customFormat="1" ht="48">
+      <c r="A12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="C12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="F12" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" ht="16">
+      <c r="A13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="C13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="F13" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1" ht="16">
+      <c r="A14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="C14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="F14" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" ht="17">
+      <c r="A15" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="C15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="F15" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1" ht="17">
+      <c r="A16" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="C16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="F16" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="16">
+      <c r="A17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="C17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="F17" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="16">
+      <c r="A18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="C18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="F18" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" ht="16">
+      <c r="A19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="C19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" ht="16">
+      <c r="A20" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="C20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="F19" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="F20" s="7">
         <v>10</v>

--- a/element_info_datas/element_info_datas.xlsx
+++ b/element_info_datas/element_info_datas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bytedance/PycharmProjects/UI-automation-framework/element_info_datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UI-automation-framework\element_info_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E484B091-DB7C-6C45-8B2C-84E42E9BDF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C29F108-6647-4FE3-9E66-15982B511250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="1300" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -70,10 +70,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>login_button</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -503,6 +499,10 @@
   <si>
     <t>.article-content</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -881,20 +881,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="3" width="26.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
+    <col min="2" max="3" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -914,7 +914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1">
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -942,31 +942,31 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" s="3" customFormat="1">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2">
         <v>4</v>
@@ -992,17 +992,17 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="51.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,61 +1022,61 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="4" customFormat="1">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="4" customFormat="1">
+    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F4" s="1">
         <v>10</v>
@@ -1096,17 +1096,17 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,41 +1126,41 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="4" customFormat="1">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1">
         <v>10</v>
@@ -1176,21 +1176,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFEBF2C-E1FB-4D2A-A5B5-E2F98D57D44A}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.5" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="16">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
@@ -1210,381 +1210,381 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="16">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" ht="16">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" ht="16">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="B5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" ht="16">
-      <c r="A5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" ht="16">
-      <c r="A6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" ht="16">
-      <c r="A7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" ht="16">
-      <c r="A8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" ht="17">
-      <c r="A9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" ht="17">
-      <c r="A10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" ht="17">
-      <c r="A11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" ht="48">
-      <c r="A12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" ht="16">
-      <c r="A13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" ht="16">
-      <c r="A14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" ht="17">
-      <c r="A15" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="4" customFormat="1" ht="17">
-      <c r="A16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" ht="16">
-      <c r="A17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" ht="16">
-      <c r="A18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="4" customFormat="1" ht="16">
-      <c r="A19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="F19" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="4" customFormat="1" ht="16">
-      <c r="A20" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="F20" s="7">
         <v>10</v>

--- a/element_info_datas/element_info_datas.xlsx
+++ b/element_info_datas/element_info_datas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UI-automation-framework\element_info_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C29F108-6647-4FE3-9E66-15982B511250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46B0A9C-A78D-4A6D-B29D-E9E80610C0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="480" windowWidth="23220" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pass</t>
+    <t>password</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -882,7 +882,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/element_info_datas/element_info_datas.xlsx
+++ b/element_info_datas/element_info_datas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UI-automation-framework\element_info_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46B0A9C-A78D-4A6D-B29D-E9E80610C0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AA1148-4A80-43B6-92B4-5075E97D3E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="480" windowWidth="23220" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="5370" windowWidth="23220" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -882,7 +882,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/element_info_datas/element_info_datas.xlsx
+++ b/element_info_datas/element_info_datas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UI-automation-framework\element_info_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AA1148-4A80-43B6-92B4-5075E97D3E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEBEC0D-1F84-46E4-BC33-46529E5E32D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="5370" windowWidth="23220" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="23220" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -989,7 +989,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1085,6 +1085,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1093,7 +1094,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1176,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFEBF2C-E1FB-4D2A-A5B5-E2F98D57D44A}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1593,5 +1594,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>